--- a/solutions/dell/devops/poweredge-ci-infrastructure/presales/level-of-effort-estimate.xlsx
+++ b/solutions/dell/devops/poweredge-ci-infrastructure/presales/level-of-effort-estimate.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$2:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Estimate Settings'!$A$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LOE'!$A$2:$K$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LOE'!$A$2:$K$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Credits'!$A$2:$C$5</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1008,32 +1008,32 @@
       </c>
       <c r="B3" s="38" t="inlineStr">
         <is>
-          <t>Number of Workstations</t>
+          <t>Number of Developers</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>10 Dell Precision 7960 units</t>
+          <t>50 developers with CI/CD access</t>
         </is>
       </c>
       <c r="D3" s="38" t="inlineStr">
         <is>
-          <t>3 workstations</t>
+          <t>10-25 developers</t>
         </is>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
-          <t>10 workstations</t>
+          <t>50 developers</t>
         </is>
       </c>
       <c r="F3" s="38" t="inlineStr">
         <is>
-          <t>25+ workstations</t>
+          <t>100+ developers</t>
         </is>
       </c>
       <c r="G3" s="38" t="inlineStr">
         <is>
-          <t>AI/ML workstation deployment scale</t>
+          <t>Development team size and build volume</t>
         </is>
       </c>
     </row>
@@ -1045,32 +1045,32 @@
       </c>
       <c r="B4" s="41" t="inlineStr">
         <is>
-          <t>GPU Configuration</t>
+          <t>Build Agents</t>
         </is>
       </c>
       <c r="C4" s="39" t="inlineStr">
         <is>
-          <t>NVIDIA RTX A6000 48GB</t>
+          <t>8 Dell PowerEdge R650 build servers</t>
         </is>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>RTX A5000 24GB</t>
+          <t>3 build agents</t>
         </is>
       </c>
       <c r="E4" s="41" t="inlineStr">
         <is>
-          <t>RTX A6000 48GB</t>
+          <t>8 build agents</t>
         </is>
       </c>
       <c r="F4" s="41" t="inlineStr">
         <is>
-          <t>RTX A6000 or A100 80GB</t>
+          <t>16+ build agents</t>
         </is>
       </c>
       <c r="G4" s="41" t="inlineStr">
         <is>
-          <t>GPU memory and compute requirements</t>
+          <t>Build farm capacity and parallelism</t>
         </is>
       </c>
     </row>
@@ -1082,32 +1082,32 @@
       </c>
       <c r="B5" s="38" t="inlineStr">
         <is>
-          <t>Data Science Tools</t>
+          <t>CI/CD Platform</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>Standard stack (PyTorch TensorFlow)</t>
+          <t>GitLab Premium self-hosted</t>
         </is>
       </c>
       <c r="D5" s="38" t="inlineStr">
         <is>
-          <t>Jupyter only</t>
+          <t>GitLab Community</t>
         </is>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
-          <t>Full stack (Jupyter VS Code TensorBoard)</t>
+          <t>GitLab Premium</t>
         </is>
       </c>
       <c r="F5" s="38" t="inlineStr">
         <is>
-          <t>Advanced MLOps platform</t>
+          <t>GitLab Ultimate</t>
         </is>
       </c>
       <c r="G5" s="38" t="inlineStr">
         <is>
-          <t>AI/ML framework and tooling complexity</t>
+          <t>Feature requirements and licensing</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="B6" s="41" t="inlineStr">
         <is>
-          <t>Shared Storage</t>
+          <t>Artifact Repository</t>
         </is>
       </c>
       <c r="C6" s="39" t="inlineStr">
         <is>
-          <t>Dell PowerScale F600 100TB NAS</t>
+          <t>JFrog Artifactory Pro</t>
         </is>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>Local storage only</t>
+          <t>No artifact mgmt</t>
         </is>
       </c>
       <c r="E6" s="41" t="inlineStr">
         <is>
-          <t>Shared NAS 50-100TB</t>
+          <t>Artifactory Pro</t>
         </is>
       </c>
       <c r="F6" s="41" t="inlineStr">
         <is>
-          <t>Enterprise NAS 200TB+ with replication</t>
+          <t>Artifactory Enterprise</t>
         </is>
       </c>
       <c r="G6" s="41" t="inlineStr">
         <is>
-          <t>Centralized dataset and model storage</t>
+          <t>Artifact management and storage</t>
         </is>
       </c>
     </row>
@@ -1156,32 +1156,32 @@
       </c>
       <c r="B7" s="38" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>Build Volume</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>10 concurrent users</t>
+          <t>5000 builds per day</t>
         </is>
       </c>
       <c r="D7" s="38" t="inlineStr">
         <is>
-          <t>3 users</t>
+          <t>500-2000 builds/day</t>
         </is>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
-          <t>10 users</t>
+          <t>5000 builds/day</t>
         </is>
       </c>
       <c r="F7" s="38" t="inlineStr">
         <is>
-          <t>25+ users</t>
+          <t>10000+ builds/day</t>
         </is>
       </c>
       <c r="G7" s="38" t="inlineStr">
         <is>
-          <t>Active data science team size</t>
+          <t>Daily build execution volume</t>
         </is>
       </c>
     </row>
@@ -1193,32 +1193,32 @@
       </c>
       <c r="B8" s="41" t="inlineStr">
         <is>
-          <t>User Roles</t>
+          <t>Pipeline Complexity</t>
         </is>
       </c>
       <c r="C8" s="39" t="inlineStr">
         <is>
-          <t>2 roles (data scientist admin)</t>
+          <t>Multi-stage pipelines with tests</t>
         </is>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>Single role</t>
+          <t>Simple build only</t>
         </is>
       </c>
       <c r="E8" s="41" t="inlineStr">
         <is>
-          <t>2-3 roles</t>
+          <t>Build test deploy</t>
         </is>
       </c>
       <c r="F8" s="41" t="inlineStr">
         <is>
-          <t>Complex role-based access</t>
+          <t>Advanced (canary blue-green)</t>
         </is>
       </c>
       <c r="G8" s="41" t="inlineStr">
         <is>
-          <t>RBAC and storage permissions</t>
+          <t>Pipeline orchestration complexity</t>
         </is>
       </c>
     </row>
@@ -1230,32 +1230,32 @@
       </c>
       <c r="B9" s="38" t="inlineStr">
         <is>
-          <t>Dataset Size per Project</t>
+          <t>Artifact Storage</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
         <is>
-          <t>5TB average dataset size</t>
+          <t>20TB artifact capacity</t>
         </is>
       </c>
       <c r="D9" s="38" t="inlineStr">
         <is>
-          <t>1-2TB datasets</t>
+          <t>5TB artifacts</t>
         </is>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
-          <t>5TB datasets</t>
+          <t>20TB artifacts</t>
         </is>
       </c>
       <c r="F9" s="38" t="inlineStr">
         <is>
-          <t>10TB+ datasets</t>
+          <t>50TB+ artifacts</t>
         </is>
       </c>
       <c r="G9" s="38" t="inlineStr">
         <is>
-          <t>Training data volume requirements</t>
+          <t>Artifact repository storage requirements</t>
         </is>
       </c>
     </row>
@@ -1267,32 +1267,32 @@
       </c>
       <c r="B10" s="41" t="inlineStr">
         <is>
-          <t>Model Checkpoint Storage</t>
+          <t>Build Artifacts</t>
         </is>
       </c>
       <c r="C10" s="39" t="inlineStr">
         <is>
-          <t>2TB model storage requirements</t>
+          <t>Maven npm Docker images</t>
         </is>
       </c>
       <c r="D10" s="41" t="inlineStr">
         <is>
-          <t>500GB checkpoints</t>
+          <t>Single format</t>
         </is>
       </c>
       <c r="E10" s="41" t="inlineStr">
         <is>
-          <t>2TB checkpoints</t>
+          <t>Multi-format</t>
         </is>
       </c>
       <c r="F10" s="41" t="inlineStr">
         <is>
-          <t>5TB+ model versioning</t>
+          <t>All formats + binary</t>
         </is>
       </c>
       <c r="G10" s="41" t="inlineStr">
         <is>
-          <t>Saved model and checkpoint capacity</t>
+          <t>Artifact type diversity and management</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="B11" s="38" t="inlineStr">
         <is>
-          <t>Network Connectivity</t>
+          <t>Build Agent OS</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
         <is>
-          <t>10GbE to shared storage</t>
+          <t>Ubuntu 22.04 LTS with Docker</t>
         </is>
       </c>
       <c r="D11" s="38" t="inlineStr">
         <is>
-          <t>1GbE standard</t>
+          <t>Linux only</t>
         </is>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
-          <t>10GbE recommended</t>
+          <t>Linux + Windows</t>
         </is>
       </c>
       <c r="F11" s="38" t="inlineStr">
         <is>
-          <t>25GbE or higher</t>
+          <t>Linux Windows macOS</t>
         </is>
       </c>
       <c r="G11" s="38" t="inlineStr">
         <is>
-          <t>Network bandwidth for data loading</t>
+          <t>OS diversity and licensing</t>
         </is>
       </c>
     </row>
@@ -1341,32 +1341,32 @@
       </c>
       <c r="B12" s="41" t="inlineStr">
         <is>
-          <t>Workstation Performance</t>
+          <t>Current CI/CD</t>
         </is>
       </c>
       <c r="C12" s="39" t="inlineStr">
         <is>
-          <t>Dell Precision 7960 dual Xeon Gold</t>
+          <t>GitHub Actions cloud runners</t>
         </is>
       </c>
       <c r="D12" s="41" t="inlineStr">
         <is>
-          <t>Standard config</t>
+          <t>Jenkins on-prem</t>
         </is>
       </c>
       <c r="E12" s="41" t="inlineStr">
         <is>
-          <t>High-performance config</t>
+          <t>GitHub Actions</t>
         </is>
       </c>
       <c r="F12" s="41" t="inlineStr">
         <is>
-          <t>Maximum performance with liquid cooling</t>
+          <t>CircleCI cloud</t>
         </is>
       </c>
       <c r="G12" s="41" t="inlineStr">
         <is>
-          <t>CPU and system performance tier</t>
+          <t>Migration complexity and platform</t>
         </is>
       </c>
     </row>
@@ -1378,32 +1378,32 @@
       </c>
       <c r="B13" s="38" t="inlineStr">
         <is>
-          <t>Operating System</t>
+          <t>Container Platform</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>Ubuntu 22.04 LTS with CUDA</t>
+          <t>Docker Enterprise with registry</t>
         </is>
       </c>
       <c r="D13" s="38" t="inlineStr">
         <is>
-          <t>Windows only</t>
+          <t>No containers</t>
         </is>
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
-          <t>Ubuntu or CentOS</t>
+          <t>Docker</t>
         </is>
       </c>
       <c r="F13" s="38" t="inlineStr">
         <is>
-          <t>Multi-OS with custom kernels</t>
+          <t>Kubernetes + registry</t>
         </is>
       </c>
       <c r="G13" s="38" t="inlineStr">
         <is>
-          <t>OS standardization and support</t>
+          <t>Container build requirements</t>
         </is>
       </c>
     </row>
@@ -1415,32 +1415,32 @@
       </c>
       <c r="B14" s="41" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Code Sensitivity</t>
         </is>
       </c>
       <c r="C14" s="39" t="inlineStr">
         <is>
-          <t>Standard file permissions and SSH</t>
+          <t>Proprietary source code</t>
         </is>
       </c>
       <c r="D14" s="41" t="inlineStr">
         <is>
-          <t>Basic access</t>
+          <t>Public repos</t>
         </is>
       </c>
       <c r="E14" s="41" t="inlineStr">
         <is>
-          <t>LDAP/AD integration</t>
+          <t>Private repos</t>
         </is>
       </c>
       <c r="F14" s="41" t="inlineStr">
         <is>
-          <t>Advanced PAM and audit logging</t>
+          <t>Confidential regulated</t>
         </is>
       </c>
       <c r="G14" s="41" t="inlineStr">
         <is>
-          <t>Authentication and authorization</t>
+          <t>Data classification and controls</t>
         </is>
       </c>
     </row>
@@ -1452,32 +1452,32 @@
       </c>
       <c r="B15" s="38" t="inlineStr">
         <is>
-          <t>Data Classification</t>
+          <t>Authentication</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>Unclassified research data</t>
+          <t>SSO with SAML integration</t>
         </is>
       </c>
       <c r="D15" s="38" t="inlineStr">
         <is>
-          <t>Public data</t>
+          <t>Local accounts only</t>
         </is>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
-          <t>Sensitive research</t>
+          <t>LDAP or SAML SSO</t>
         </is>
       </c>
       <c r="F15" s="38" t="inlineStr">
         <is>
-          <t>Regulated data (HIPAA ITAR)</t>
+          <t>MFA required</t>
         </is>
       </c>
       <c r="G15" s="38" t="inlineStr">
         <is>
-          <t>Data sensitivity and compliance</t>
+          <t>Authentication and access control</t>
         </is>
       </c>
     </row>
@@ -1489,32 +1489,32 @@
       </c>
       <c r="B16" s="41" t="inlineStr">
         <is>
-          <t>Training Performance</t>
+          <t>Build Queue Time</t>
         </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>Target: 80% GPU utilization average</t>
+          <t>&lt;5 minute average queue time</t>
         </is>
       </c>
       <c r="D16" s="41" t="inlineStr">
         <is>
-          <t>Best effort</t>
+          <t>&lt;15 min acceptable</t>
         </is>
       </c>
       <c r="E16" s="41" t="inlineStr">
         <is>
-          <t>80% utilization</t>
+          <t>&lt;5 min target</t>
         </is>
       </c>
       <c r="F16" s="41" t="inlineStr">
         <is>
-          <t>90%+ with job scheduling</t>
+          <t>&lt;2 min required</t>
         </is>
       </c>
       <c r="G16" s="41" t="inlineStr">
         <is>
-          <t>GPU efficiency and workload optimization</t>
+          <t>Developer productivity and SLA</t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B17" s="38" t="inlineStr">
         <is>
-          <t>Storage Performance</t>
+          <t>Build Duration</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>7000 MB/s NVMe read per workstation</t>
+          <t>15 minute average build time</t>
         </is>
       </c>
       <c r="D17" s="38" t="inlineStr">
         <is>
-          <t>Standard SSD</t>
+          <t>5-10 min builds</t>
         </is>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
-          <t>High-speed NVMe</t>
+          <t>15 min builds</t>
         </is>
       </c>
       <c r="F17" s="38" t="inlineStr">
         <is>
-          <t>NVMe RAID arrays</t>
+          <t>30+ min builds</t>
         </is>
       </c>
       <c r="G17" s="38" t="inlineStr">
         <is>
-          <t>Local storage I/O performance</t>
+          <t>Compute capacity requirements</t>
         </is>
       </c>
     </row>
@@ -1563,32 +1563,32 @@
       </c>
       <c r="B18" s="41" t="inlineStr">
         <is>
-          <t>Deployment Environments</t>
+          <t>Deployment Strategy</t>
         </is>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>Production only</t>
+          <t>Phased migration by team</t>
         </is>
       </c>
       <c r="D18" s="41" t="inlineStr">
         <is>
-          <t>Single environment</t>
+          <t>Pilot only</t>
         </is>
       </c>
       <c r="E18" s="41" t="inlineStr">
         <is>
-          <t>Production + dev</t>
+          <t>Phased rollout</t>
         </is>
       </c>
       <c r="F18" s="41" t="inlineStr">
         <is>
-          <t>Multi-tenant with quotas</t>
+          <t>Full parallel run</t>
         </is>
       </c>
       <c r="G18" s="41" t="inlineStr">
         <is>
-          <t>Environment separation and management</t>
+          <t>Migration risk and complexity</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D3" s="38" t="inlineStr">
         <is>
-          <t>All Discovery phase tasks (Requirements Assessment Hardware Planning Dataset Analysis)</t>
+          <t>All Discovery phase tasks (Build Analysis Cloud Cost Pipeline Inventory)</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>All Planning phase tasks (Infrastructure Design Storage Architecture Network Design)</t>
+          <t>All Planning phase tasks (Platform Design Build Agent Sizing Artifact Architecture)</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D5" s="38" t="inlineStr">
         <is>
-          <t>All Development phase tasks (Workstation Deployment GPU Configuration Storage Setup)</t>
+          <t>All Development phase tasks (PowerEdge Deployment GitLab Setup Pipeline Migration)</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>All Testing phase tasks (Performance Testing GPU Benchmarking Storage Validation)</t>
+          <t>All Testing phase tasks (Performance Testing Build Queue Validation)</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D7" s="38" t="inlineStr">
         <is>
-          <t>All Deployment phase tasks (Production Rollout User Onboarding)</t>
+          <t>All Deployment phase tasks (Team Rollout Cloud Decommission)</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>All Training phase tasks (User Training Documentation)</t>
+          <t>All Training phase tasks (Developer Training DevOps Training)</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D9" s="38" t="inlineStr">
         <is>
-          <t>All Closeout phase tasks (Knowledge Transfer Performance Baseline)</t>
+          <t>All Closeout phase tasks (Knowledge Transfer Pipeline Templates)</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B3" s="46" t="inlineStr">
         <is>
-          <t>Requirements Assessment</t>
+          <t>Build Volume Analysis</t>
         </is>
       </c>
       <c r="C3" s="46" t="inlineStr">
         <is>
-          <t>Assess AI/ML workload requirements and user workflows</t>
+          <t>Analyze build frequency duration and resource consumption</t>
         </is>
       </c>
       <c r="D3" s="46" t="inlineStr">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E3" s="47" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F3" s="48" t="n">
         <v>1</v>
@@ -1981,7 +1981,7 @@
       <c r="J3" s="46" t="inlineStr"/>
       <c r="K3" s="46" t="inlineStr">
         <is>
-          <t>Includes dataset analysis and GPU sizing for PyTorch/TensorFlow</t>
+          <t>Includes build agent sizing and capacity planning</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B4" s="52" t="inlineStr">
         <is>
-          <t>Hardware Planning</t>
+          <t>Cloud Cost Analysis</t>
         </is>
       </c>
       <c r="C4" s="52" t="inlineStr">
         <is>
-          <t>Evaluate Dell Precision and GPU configuration options</t>
+          <t>Calculate cloud CI/CD spend and ROI baseline</t>
         </is>
       </c>
       <c r="D4" s="52" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E4" s="53" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F4" s="54">
         <f>'Estimate Settings'!$C$3</f>
@@ -2018,7 +2018,7 @@
         <v/>
       </c>
       <c r="H4" s="56" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="I4" s="55">
         <f>TEXT($G4*$H4,"$#,##0")</f>
@@ -2027,7 +2027,7 @@
       <c r="J4" s="52" t="inlineStr"/>
       <c r="K4" s="52" t="inlineStr">
         <is>
-          <t>Customer must provide representative training workloads for benchmarking</t>
+          <t>Customer must provide cloud invoices and usage data</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B5" s="46" t="inlineStr">
         <is>
-          <t>Dataset Analysis</t>
+          <t>Pipeline Inventory</t>
         </is>
       </c>
       <c r="C5" s="46" t="inlineStr">
         <is>
-          <t>Analyze dataset sizes access patterns and storage needs</t>
+          <t>Inventory CI/CD pipelines and integration points</t>
         </is>
       </c>
       <c r="D5" s="46" t="inlineStr">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="E5" s="47" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F5" s="57">
         <f>'Estimate Settings'!$C$3</f>
@@ -2064,7 +2064,7 @@
         <v/>
       </c>
       <c r="H5" s="50" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I5" s="49">
         <f>TEXT($G5*$H5,"$#,##0")</f>
@@ -2073,7 +2073,7 @@
       <c r="J5" s="46" t="inlineStr"/>
       <c r="K5" s="46" t="inlineStr">
         <is>
-          <t>Customer must provide dataset inventory and growth projections</t>
+          <t>Identifies pipeline migration scope and complexity</t>
         </is>
       </c>
     </row>
@@ -2085,12 +2085,12 @@
       </c>
       <c r="B6" s="52" t="inlineStr">
         <is>
-          <t>Network Assessment</t>
+          <t>Infrastructure Assessment</t>
         </is>
       </c>
       <c r="C6" s="52" t="inlineStr">
         <is>
-          <t>Evaluate network infrastructure for 10GbE connectivity</t>
+          <t>Survey data center resources and network connectivity</t>
         </is>
       </c>
       <c r="D6" s="52" t="inlineStr">
@@ -2110,7 +2110,7 @@
         <v/>
       </c>
       <c r="H6" s="56" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I6" s="55">
         <f>TEXT($G6*$H6,"$#,##0")</f>
@@ -2119,7 +2119,7 @@
       <c r="J6" s="52" t="inlineStr"/>
       <c r="K6" s="52" t="inlineStr">
         <is>
-          <t>Identifies network upgrades needed for shared storage access</t>
+          <t>Validates rack space power and network for build farm</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="B7" s="46" t="inlineStr">
         <is>
-          <t>Infrastructure Design</t>
+          <t>CI/CD Platform Design</t>
         </is>
       </c>
       <c r="C7" s="46" t="inlineStr">
         <is>
-          <t>Design Dell Precision workstation and GPU architecture</t>
+          <t>Design GitLab architecture and HA configuration</t>
         </is>
       </c>
       <c r="D7" s="46" t="inlineStr">
@@ -2164,12 +2164,12 @@
       </c>
       <c r="J7" s="46" t="inlineStr">
         <is>
-          <t>Requirements Assessment</t>
+          <t>Build Volume Analysis</t>
         </is>
       </c>
       <c r="K7" s="46" t="inlineStr">
         <is>
-          <t>Deliverable: Hardware architecture with GPU and storage design</t>
+          <t>Deliverable: GitLab architecture with runner configuration</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="B8" s="52" t="inlineStr">
         <is>
-          <t>Storage Architecture</t>
+          <t>Build Agent Sizing</t>
         </is>
       </c>
       <c r="C8" s="52" t="inlineStr">
         <is>
-          <t>Design PowerScale NAS storage and dataset organization</t>
+          <t>Size PowerEdge build agents for concurrent builds</t>
         </is>
       </c>
       <c r="D8" s="52" t="inlineStr">
@@ -2206,7 +2206,7 @@
         <v/>
       </c>
       <c r="H8" s="56" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I8" s="55">
         <f>TEXT($G8*$H8,"$#,##0")</f>
@@ -2214,12 +2214,12 @@
       </c>
       <c r="J8" s="52" t="inlineStr">
         <is>
-          <t>Dataset Analysis</t>
+          <t>Build Volume Analysis</t>
         </is>
       </c>
       <c r="K8" s="52" t="inlineStr">
         <is>
-          <t>Deliverable: Storage capacity plan and NFS/SMB share design</t>
+          <t>Deliverable: Server specs CPU RAM disk for build capacity</t>
         </is>
       </c>
     </row>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="B9" s="46" t="inlineStr">
         <is>
-          <t>Network Design</t>
+          <t>Artifact Repository Design</t>
         </is>
       </c>
       <c r="C9" s="46" t="inlineStr">
         <is>
-          <t>Design 10GbE network connectivity and switch topology</t>
+          <t>Design Artifactory architecture and storage</t>
         </is>
       </c>
       <c r="D9" s="46" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="J9" s="46" t="inlineStr">
         <is>
-          <t>Network Assessment</t>
+          <t>Pipeline Inventory</t>
         </is>
       </c>
       <c r="K9" s="46" t="inlineStr">
         <is>
-          <t>Network diagram with workstation-to-storage connectivity</t>
+          <t>Artifact storage capacity and retention policy design</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B10" s="52" t="inlineStr">
         <is>
-          <t>Project Planning</t>
+          <t>Pipeline Migration Plan</t>
         </is>
       </c>
       <c r="C10" s="52" t="inlineStr">
         <is>
-          <t>Develop implementation timeline and procurement schedule</t>
+          <t>Develop pipeline conversion and rollout strategy</t>
         </is>
       </c>
       <c r="D10" s="52" t="inlineStr">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="E10" s="53" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F10" s="54">
         <f>'Estimate Settings'!$C$4</f>
@@ -2306,7 +2306,7 @@
         <v/>
       </c>
       <c r="H10" s="56" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="I10" s="55">
         <f>TEXT($G10*$H10,"$#,##0")</f>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="J10" s="52" t="inlineStr">
         <is>
-          <t>Infrastructure Design</t>
+          <t>Pipeline Inventory</t>
         </is>
       </c>
       <c r="K10" s="52" t="inlineStr">
         <is>
-          <t>Deliverable: Project plan with hardware lead times</t>
+          <t>Deliverable: Migration timeline and pilot project selection</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="B11" s="46" t="inlineStr">
         <is>
-          <t>Workstation Procurement</t>
+          <t>PowerEdge Procurement</t>
         </is>
       </c>
       <c r="C11" s="46" t="inlineStr">
         <is>
-          <t>Order Dell Precision 7960 workstations and components</t>
+          <t>Order Dell PowerEdge R650 build agent servers</t>
         </is>
       </c>
       <c r="D11" s="46" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="J11" s="46" t="inlineStr">
         <is>
-          <t>Infrastructure Design</t>
+          <t>Build Agent Sizing</t>
         </is>
       </c>
       <c r="K11" s="46" t="inlineStr">
         <is>
-          <t>Coordinate with Dell sales and track delivery schedule</t>
+          <t>Coordinate Dell sales and track delivery schedule</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="B12" s="52" t="inlineStr">
         <is>
-          <t>GPU Configuration</t>
+          <t>Build Agent Deployment</t>
         </is>
       </c>
       <c r="C12" s="52" t="inlineStr">
         <is>
-          <t>Install and configure NVIDIA RTX A6000 GPUs with drivers</t>
+          <t>Install PowerEdge servers and configure RHEL</t>
         </is>
       </c>
       <c r="D12" s="52" t="inlineStr">
@@ -2414,12 +2414,12 @@
       </c>
       <c r="J12" s="52" t="inlineStr">
         <is>
-          <t>Workstation Procurement</t>
+          <t>PowerEdge Procurement</t>
         </is>
       </c>
       <c r="K12" s="52" t="inlineStr">
         <is>
-          <t>Includes CUDA cuDNN installation and GPU burn-in testing</t>
+          <t>Rack installation OS setup and network configuration</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C13" s="46" t="inlineStr">
         <is>
-          <t>Deploy Dell PowerScale F600 NAS and configure shares</t>
+          <t>Deploy Dell Unity XT storage for artifacts</t>
         </is>
       </c>
       <c r="D13" s="46" t="inlineStr">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="E13" s="47" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F13" s="57">
         <f>'Estimate Settings'!$C$5</f>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="J13" s="46" t="inlineStr">
         <is>
-          <t>Storage Architecture</t>
+          <t>Artifact Repository Design</t>
         </is>
       </c>
       <c r="K13" s="46" t="inlineStr">
         <is>
-          <t>Configure NFS/SMB shares with user permissions and quotas</t>
+          <t>Unity configuration with NFS shares for artifacts</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B14" s="52" t="inlineStr">
         <is>
-          <t>Operating System Setup</t>
+          <t>GitLab Installation</t>
         </is>
       </c>
       <c r="C14" s="52" t="inlineStr">
         <is>
-          <t>Install Ubuntu 22.04 LTS and AI/ML software stack</t>
+          <t>Install and configure GitLab Premium self-hosted</t>
         </is>
       </c>
       <c r="D14" s="52" t="inlineStr">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="E14" s="53" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F14" s="54">
         <f>'Estimate Settings'!$C$5</f>
@@ -2506,7 +2506,7 @@
         <v/>
       </c>
       <c r="H14" s="56" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="I14" s="55">
         <f>TEXT($G14*$H14,"$#,##0")</f>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="J14" s="52" t="inlineStr">
         <is>
-          <t>GPU Configuration</t>
+          <t>Build Agent Deployment</t>
         </is>
       </c>
       <c r="K14" s="52" t="inlineStr">
         <is>
-          <t>Install PyTorch TensorFlow Jupyter and development tools</t>
+          <t>GitLab server setup SSO configuration runner registration</t>
         </is>
       </c>
     </row>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B15" s="46" t="inlineStr">
         <is>
-          <t>Network Configuration</t>
+          <t>Artifactory Deployment</t>
         </is>
       </c>
       <c r="C15" s="46" t="inlineStr">
         <is>
-          <t>Configure 10GbE network and storage connectivity</t>
+          <t>Deploy JFrog Artifactory Pro for artifact management</t>
         </is>
       </c>
       <c r="D15" s="46" t="inlineStr">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="E15" s="47" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F15" s="57">
         <f>'Estimate Settings'!$C$5</f>
@@ -2556,7 +2556,7 @@
         <v/>
       </c>
       <c r="H15" s="50" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="I15" s="49">
         <f>TEXT($G15*$H15,"$#,##0")</f>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="J15" s="46" t="inlineStr">
         <is>
-          <t>Network Design</t>
+          <t>Storage Deployment</t>
         </is>
       </c>
       <c r="K15" s="46" t="inlineStr">
         <is>
-          <t>Includes switch configuration VLAN setup and network validation</t>
+          <t>Artifactory installation repository setup proxy configuration</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B16" s="52" t="inlineStr">
         <is>
-          <t>Monitoring Setup</t>
+          <t>Docker Configuration</t>
         </is>
       </c>
       <c r="C16" s="52" t="inlineStr">
         <is>
-          <t>Deploy Datadog for GPU metrics and utilization tracking</t>
+          <t>Configure Docker Enterprise and container registry</t>
         </is>
       </c>
       <c r="D16" s="52" t="inlineStr">
@@ -2606,7 +2606,7 @@
         <v/>
       </c>
       <c r="H16" s="56" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="I16" s="55">
         <f>TEXT($G16*$H16,"$#,##0")</f>
@@ -2614,29 +2614,29 @@
       </c>
       <c r="J16" s="52" t="inlineStr">
         <is>
-          <t>Operating System Setup</t>
+          <t>Build Agent Deployment</t>
         </is>
       </c>
       <c r="K16" s="52" t="inlineStr">
         <is>
-          <t>Configure GPU monitoring dashboards and alerting</t>
+          <t>Docker daemon registry authentication image caching</t>
         </is>
       </c>
     </row>
     <row r="17" ht="26" customHeight="1">
       <c r="A17" s="45" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="B17" s="46" t="inlineStr">
         <is>
-          <t>Performance Testing</t>
+          <t>Secrets Management</t>
         </is>
       </c>
       <c r="C17" s="46" t="inlineStr">
         <is>
-          <t>Benchmark GPU performance with PyTorch/TensorFlow</t>
+          <t>Deploy HashiCorp Vault for pipeline secrets</t>
         </is>
       </c>
       <c r="D17" s="46" t="inlineStr">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="E17" s="47" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F17" s="57">
-        <f>'Estimate Settings'!$C$6</f>
+        <f>'Estimate Settings'!$C$5</f>
         <v/>
       </c>
       <c r="G17" s="49">
@@ -2656,7 +2656,7 @@
         <v/>
       </c>
       <c r="H17" s="50" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="I17" s="49">
         <f>TEXT($G17*$H17,"$#,##0")</f>
@@ -2664,29 +2664,29 @@
       </c>
       <c r="J17" s="46" t="inlineStr">
         <is>
-          <t>Operating System Setup</t>
+          <t>GitLab Installation</t>
         </is>
       </c>
       <c r="K17" s="46" t="inlineStr">
         <is>
-          <t>Validate GPU utilization and training throughput</t>
+          <t>Vault installation GitLab integration credential injection</t>
         </is>
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
       <c r="A18" s="51" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="B18" s="52" t="inlineStr">
         <is>
-          <t>Storage Performance</t>
+          <t>Pipeline Templates</t>
         </is>
       </c>
       <c r="C18" s="52" t="inlineStr">
         <is>
-          <t>Test NAS storage throughput and dataset loading speeds</t>
+          <t>Create GitLab CI pipeline templates for common stacks</t>
         </is>
       </c>
       <c r="D18" s="52" t="inlineStr">
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="E18" s="53" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F18" s="54">
-        <f>'Estimate Settings'!$C$6</f>
+        <f>'Estimate Settings'!$C$5</f>
         <v/>
       </c>
       <c r="G18" s="55">
@@ -2706,7 +2706,7 @@
         <v/>
       </c>
       <c r="H18" s="56" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="I18" s="55">
         <f>TEXT($G18*$H18,"$#,##0")</f>
@@ -2714,12 +2714,12 @@
       </c>
       <c r="J18" s="52" t="inlineStr">
         <is>
-          <t>Storage Deployment</t>
+          <t>GitLab Installation</t>
         </is>
       </c>
       <c r="K18" s="52" t="inlineStr">
         <is>
-          <t>Measure read/write performance with large datasets</t>
+          <t>Templates for Node.js Java Python Docker builds</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="B19" s="46" t="inlineStr">
         <is>
-          <t>Network Validation</t>
+          <t>Performance Testing</t>
         </is>
       </c>
       <c r="C19" s="46" t="inlineStr">
         <is>
-          <t>Validate 10GbE network performance and bandwidth</t>
+          <t>Benchmark build queue time and throughput</t>
         </is>
       </c>
       <c r="D19" s="46" t="inlineStr">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="E19" s="47" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F19" s="57">
         <f>'Estimate Settings'!$C$6</f>
@@ -2756,7 +2756,7 @@
         <v/>
       </c>
       <c r="H19" s="50" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I19" s="49">
         <f>TEXT($G19*$H19,"$#,##0")</f>
@@ -2764,12 +2764,12 @@
       </c>
       <c r="J19" s="46" t="inlineStr">
         <is>
-          <t>Network Configuration</t>
+          <t>Pipeline Templates</t>
         </is>
       </c>
       <c r="K19" s="46" t="inlineStr">
         <is>
-          <t>Network throughput testing between workstations and storage</t>
+          <t>Validate &lt;5 min queue time and concurrent build capacity</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="B20" s="52" t="inlineStr">
         <is>
-          <t>End-to-End Testing</t>
+          <t>Artifact Performance</t>
         </is>
       </c>
       <c r="C20" s="52" t="inlineStr">
         <is>
-          <t>Run representative training workloads end-to-end</t>
+          <t>Test artifact download speed and caching</t>
         </is>
       </c>
       <c r="D20" s="52" t="inlineStr">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="E20" s="53" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F20" s="54">
         <f>'Estimate Settings'!$C$6</f>
@@ -2806,7 +2806,7 @@
         <v/>
       </c>
       <c r="H20" s="56" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="I20" s="55">
         <f>TEXT($G20*$H20,"$#,##0")</f>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="J20" s="52" t="inlineStr">
         <is>
-          <t>Performance Testing</t>
+          <t>Artifactory Deployment</t>
         </is>
       </c>
       <c r="K20" s="52" t="inlineStr">
         <is>
-          <t>Customer must provide sample training scripts for validation</t>
+          <t>Measure artifact download throughput and proxy cache</t>
         </is>
       </c>
     </row>
     <row r="21" ht="26" customHeight="1">
       <c r="A21" s="45" t="inlineStr">
         <is>
-          <t>Deployment</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="B21" s="46" t="inlineStr">
         <is>
-          <t>Production Rollout</t>
+          <t>Pipeline Validation</t>
         </is>
       </c>
       <c r="C21" s="46" t="inlineStr">
         <is>
-          <t>Deploy remaining workstations to production</t>
+          <t>Validate pipeline templates with pilot projects</t>
         </is>
       </c>
       <c r="D21" s="46" t="inlineStr">
@@ -2848,7 +2848,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="57">
-        <f>'Estimate Settings'!$C$7</f>
+        <f>'Estimate Settings'!$C$6</f>
         <v/>
       </c>
       <c r="G21" s="49">
@@ -2864,29 +2864,29 @@
       </c>
       <c r="J21" s="46" t="inlineStr">
         <is>
-          <t>End-to-End Testing</t>
+          <t>Performance Testing</t>
         </is>
       </c>
       <c r="K21" s="46" t="inlineStr">
         <is>
-          <t>Phased rollout with monitoring and issue tracking</t>
+          <t>Customer must provide pilot projects for testing</t>
         </is>
       </c>
     </row>
     <row r="22" ht="26" customHeight="1">
       <c r="A22" s="51" t="inlineStr">
         <is>
-          <t>Deployment</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="B22" s="52" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Integration Testing</t>
         </is>
       </c>
       <c r="C22" s="52" t="inlineStr">
         <is>
-          <t>Onboard data scientists to new workstation environment</t>
+          <t>Test deployment integrations and webhooks</t>
         </is>
       </c>
       <c r="D22" s="52" t="inlineStr">
@@ -2898,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="54">
-        <f>'Estimate Settings'!$C$7</f>
+        <f>'Estimate Settings'!$C$6</f>
         <v/>
       </c>
       <c r="G22" s="55">
@@ -2906,7 +2906,7 @@
         <v/>
       </c>
       <c r="H22" s="56" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="I22" s="55">
         <f>TEXT($G22*$H22,"$#,##0")</f>
@@ -2914,12 +2914,12 @@
       </c>
       <c r="J22" s="52" t="inlineStr">
         <is>
-          <t>Production Rollout</t>
+          <t>Pipeline Validation</t>
         </is>
       </c>
       <c r="K22" s="52" t="inlineStr">
         <is>
-          <t>Assist with workspace setup and first training runs</t>
+          <t>Validate Slack Jira and deployment target integrations</t>
         </is>
       </c>
     </row>
@@ -2931,12 +2931,12 @@
       </c>
       <c r="B23" s="46" t="inlineStr">
         <is>
-          <t>Go-Live Support</t>
+          <t>Pilot Migration</t>
         </is>
       </c>
       <c r="C23" s="46" t="inlineStr">
         <is>
-          <t>Provide hypercare support during initial production use</t>
+          <t>Migrate 5-10 pilot projects to on-prem GitLab</t>
         </is>
       </c>
       <c r="D23" s="46" t="inlineStr">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="E23" s="47" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F23" s="57">
         <f>'Estimate Settings'!$C$7</f>
@@ -2956,7 +2956,7 @@
         <v/>
       </c>
       <c r="H23" s="50" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="I23" s="49">
         <f>TEXT($G23*$H23,"$#,##0")</f>
@@ -2964,29 +2964,29 @@
       </c>
       <c r="J23" s="46" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Pipeline Validation</t>
         </is>
       </c>
       <c r="K23" s="46" t="inlineStr">
         <is>
-          <t>Daily monitoring and rapid issue response</t>
+          <t>Convert pipelines validate builds collect feedback</t>
         </is>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1">
       <c r="A24" s="51" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="B24" s="52" t="inlineStr">
         <is>
-          <t>Data Scientist Training</t>
+          <t>Team Rollout</t>
         </is>
       </c>
       <c r="C24" s="52" t="inlineStr">
         <is>
-          <t>Train users on GPU workstation usage and best practices</t>
+          <t>Phased rollout to development teams</t>
         </is>
       </c>
       <c r="D24" s="52" t="inlineStr">
@@ -2995,10 +2995,10 @@
         </is>
       </c>
       <c r="E24" s="53" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F24" s="54">
-        <f>'Estimate Settings'!$C$8</f>
+        <f>'Estimate Settings'!$C$7</f>
         <v/>
       </c>
       <c r="G24" s="55">
@@ -3006,7 +3006,7 @@
         <v/>
       </c>
       <c r="H24" s="56" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="I24" s="55">
         <f>TEXT($G24*$H24,"$#,##0")</f>
@@ -3014,29 +3014,29 @@
       </c>
       <c r="J24" s="52" t="inlineStr">
         <is>
-          <t>Production Rollout</t>
+          <t>Pilot Migration</t>
         </is>
       </c>
       <c r="K24" s="52" t="inlineStr">
         <is>
-          <t>Includes PyTorch/TensorFlow optimization and GPU profiling</t>
+          <t>10 developers every 2 weeks migration schedule</t>
         </is>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1">
       <c r="A25" s="45" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="B25" s="46" t="inlineStr">
         <is>
-          <t>Administrator Training</t>
+          <t>Cloud Decommission</t>
         </is>
       </c>
       <c r="C25" s="46" t="inlineStr">
         <is>
-          <t>Train IT staff on workstation and storage management</t>
+          <t>Decommission cloud CI/CD platform</t>
         </is>
       </c>
       <c r="D25" s="46" t="inlineStr">
@@ -3048,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="57">
-        <f>'Estimate Settings'!$C$8</f>
+        <f>'Estimate Settings'!$C$7</f>
         <v/>
       </c>
       <c r="G25" s="49">
@@ -3056,7 +3056,7 @@
         <v/>
       </c>
       <c r="H25" s="50" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I25" s="49">
         <f>TEXT($G25*$H25,"$#,##0")</f>
@@ -3064,29 +3064,29 @@
       </c>
       <c r="J25" s="46" t="inlineStr">
         <is>
-          <t>Data Scientist Training</t>
+          <t>Team Rollout</t>
         </is>
       </c>
       <c r="K25" s="46" t="inlineStr">
         <is>
-          <t>Includes GPU monitoring Datadog and PowerScale administration</t>
+          <t>Cancel GitHub Actions or CircleCI subscriptions</t>
         </is>
       </c>
     </row>
     <row r="26" ht="26" customHeight="1">
       <c r="A26" s="51" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="B26" s="52" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Production Support</t>
         </is>
       </c>
       <c r="C26" s="52" t="inlineStr">
         <is>
-          <t>Create user guides and operational runbooks</t>
+          <t>Provide hypercare support during migration</t>
         </is>
       </c>
       <c r="D26" s="52" t="inlineStr">
@@ -3095,10 +3095,10 @@
         </is>
       </c>
       <c r="E26" s="53" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F26" s="54">
-        <f>'Estimate Settings'!$C$8</f>
+        <f>'Estimate Settings'!$C$7</f>
         <v/>
       </c>
       <c r="G26" s="55">
@@ -3106,7 +3106,7 @@
         <v/>
       </c>
       <c r="H26" s="56" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="I26" s="55">
         <f>TEXT($G26*$H26,"$#,##0")</f>
@@ -3114,29 +3114,29 @@
       </c>
       <c r="J26" s="52" t="inlineStr">
         <is>
-          <t>Administrator Training</t>
+          <t>Team Rollout</t>
         </is>
       </c>
       <c r="K26" s="52" t="inlineStr">
         <is>
-          <t>Deliverable: User guides troubleshooting procedures GPU optimization</t>
+          <t>Daily monitoring and rapid pipeline issue response</t>
         </is>
       </c>
     </row>
     <row r="27" ht="26" customHeight="1">
       <c r="A27" s="45" t="inlineStr">
         <is>
-          <t>Closeout</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="B27" s="46" t="inlineStr">
         <is>
-          <t>Knowledge Transfer</t>
+          <t>Developer Training</t>
         </is>
       </c>
       <c r="C27" s="46" t="inlineStr">
         <is>
-          <t>Transfer solution ownership to IT operations</t>
+          <t>Train developers on GitLab CI/CD and pipelines</t>
         </is>
       </c>
       <c r="D27" s="46" t="inlineStr">
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="E27" s="47" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F27" s="57">
-        <f>'Estimate Settings'!$C$9</f>
+        <f>'Estimate Settings'!$C$8</f>
         <v/>
       </c>
       <c r="G27" s="49">
@@ -3156,7 +3156,7 @@
         <v/>
       </c>
       <c r="H27" s="50" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I27" s="49">
         <f>TEXT($G27*$H27,"$#,##0")</f>
@@ -3164,29 +3164,29 @@
       </c>
       <c r="J27" s="46" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Production Support</t>
         </is>
       </c>
       <c r="K27" s="46" t="inlineStr">
         <is>
-          <t>Comprehensive handover including hardware specs and procedures</t>
+          <t>GitLab CI syntax pipeline debugging Artifactory usage</t>
         </is>
       </c>
     </row>
     <row r="28" ht="26" customHeight="1">
       <c r="A28" s="51" t="inlineStr">
         <is>
-          <t>Closeout</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="B28" s="52" t="inlineStr">
         <is>
-          <t>Performance Baseline</t>
+          <t>DevOps Training</t>
         </is>
       </c>
       <c r="C28" s="52" t="inlineStr">
         <is>
-          <t>Establish GPU utilization and performance baselines</t>
+          <t>Train DevOps team on platform administration</t>
         </is>
       </c>
       <c r="D28" s="52" t="inlineStr">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="E28" s="53" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F28" s="54">
-        <f>'Estimate Settings'!$C$9</f>
+        <f>'Estimate Settings'!$C$8</f>
         <v/>
       </c>
       <c r="G28" s="55">
@@ -3206,7 +3206,7 @@
         <v/>
       </c>
       <c r="H28" s="56" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="I28" s="55">
         <f>TEXT($G28*$H28,"$#,##0")</f>
@@ -3214,42 +3214,41 @@
       </c>
       <c r="J28" s="52" t="inlineStr">
         <is>
-          <t>Knowledge Transfer</t>
+          <t>Developer Training</t>
         </is>
       </c>
       <c r="K28" s="52" t="inlineStr">
         <is>
-          <t>Establishes GPU efficiency metrics and cost tracking</t>
+          <t>GitLab admin runner management Artifactory administration</t>
         </is>
       </c>
     </row>
     <row r="29" ht="26" customHeight="1">
       <c r="A29" s="45" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="B29" s="46" t="inlineStr">
         <is>
-          <t>Technical Leadership</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="C29" s="46" t="inlineStr">
         <is>
-          <t>Quarterback technical oversight and architecture review</t>
+          <t>Create pipeline templates and runbooks</t>
         </is>
       </c>
       <c r="D29" s="46" t="inlineStr">
         <is>
-          <t>EO Quarterback</t>
-        </is>
-      </c>
-      <c r="E29" s="49">
-        <f>ROUND(SUM($G$3:$G$28)*0.10,0)</f>
-        <v/>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E29" s="47" t="n">
+        <v>24</v>
       </c>
       <c r="F29" s="57">
-        <f>'Estimate Settings'!$C$11</f>
+        <f>'Estimate Settings'!$C$8</f>
         <v/>
       </c>
       <c r="G29" s="49">
@@ -3257,46 +3256,49 @@
         <v/>
       </c>
       <c r="H29" s="50" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I29" s="49">
         <f>TEXT($G29*$H29,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J29" s="46" t="inlineStr"/>
+      <c r="J29" s="46" t="inlineStr">
+        <is>
+          <t>DevOps Training</t>
+        </is>
+      </c>
       <c r="K29" s="46" t="inlineStr">
         <is>
-          <t>Dell Precision architecture review and GPU optimization guidance</t>
+          <t>Deliverable: Pipeline templates troubleshooting guides</t>
         </is>
       </c>
     </row>
     <row r="30" ht="26" customHeight="1">
       <c r="A30" s="51" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Closeout</t>
         </is>
       </c>
       <c r="B30" s="52" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Knowledge Transfer</t>
         </is>
       </c>
       <c r="C30" s="52" t="inlineStr">
         <is>
-          <t>Project coordination planning and management activities</t>
+          <t>Transfer CI/CD platform ownership to DevOps</t>
         </is>
       </c>
       <c r="D30" s="52" t="inlineStr">
         <is>
-          <t>EO Project Manager</t>
-        </is>
-      </c>
-      <c r="E30" s="55">
-        <f>ROUND(SUM($G$3:$G$28)*0.10,0)</f>
-        <v/>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E30" s="53" t="n">
+        <v>16</v>
       </c>
       <c r="F30" s="54">
-        <f>'Estimate Settings'!$C$10</f>
+        <f>'Estimate Settings'!$C$9</f>
         <v/>
       </c>
       <c r="G30" s="55">
@@ -3304,52 +3306,200 @@
         <v/>
       </c>
       <c r="H30" s="56" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="I30" s="55">
         <f>TEXT($G30*$H30,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J30" s="52" t="inlineStr"/>
+      <c r="J30" s="52" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
       <c r="K30" s="52" t="inlineStr">
         <is>
-          <t>Includes status reporting risk management and vendor coordination</t>
+          <t>Comprehensive handover including architecture and procedures</t>
         </is>
       </c>
     </row>
     <row r="31" ht="26" customHeight="1">
-      <c r="A31" s="58" t="inlineStr"/>
-      <c r="B31" s="58" t="inlineStr"/>
-      <c r="C31" s="58" t="inlineStr"/>
-      <c r="D31" s="58" t="inlineStr"/>
-      <c r="E31" s="58" t="inlineStr"/>
-      <c r="F31" s="59" t="inlineStr">
+      <c r="A31" s="45" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B31" s="46" t="inlineStr">
+        <is>
+          <t>Performance Baseline</t>
+        </is>
+      </c>
+      <c r="C31" s="46" t="inlineStr">
+        <is>
+          <t>Establish build performance and queue time baselines</t>
+        </is>
+      </c>
+      <c r="D31" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E31" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" s="57">
+        <f>'Estimate Settings'!$C$9</f>
+        <v/>
+      </c>
+      <c r="G31" s="49">
+        <f>$E31*$F31</f>
+        <v/>
+      </c>
+      <c r="H31" s="50" t="n">
+        <v>150</v>
+      </c>
+      <c r="I31" s="49">
+        <f>TEXT($G31*$H31,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J31" s="46" t="inlineStr">
+        <is>
+          <t>Knowledge Transfer</t>
+        </is>
+      </c>
+      <c r="K31" s="46" t="inlineStr">
+        <is>
+          <t>Baseline queue time build success rate metrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="26" customHeight="1">
+      <c r="A32" s="51" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B32" s="52" t="inlineStr">
+        <is>
+          <t>Technical Leadership</t>
+        </is>
+      </c>
+      <c r="C32" s="52" t="inlineStr">
+        <is>
+          <t>Quarterback technical oversight and architecture review</t>
+        </is>
+      </c>
+      <c r="D32" s="52" t="inlineStr">
+        <is>
+          <t>EO Quarterback</t>
+        </is>
+      </c>
+      <c r="E32" s="55">
+        <f>ROUND(SUM($G$3:$G$31)*0.10,0)</f>
+        <v/>
+      </c>
+      <c r="F32" s="54">
+        <f>'Estimate Settings'!$C$11</f>
+        <v/>
+      </c>
+      <c r="G32" s="55">
+        <f>$E32*$F32</f>
+        <v/>
+      </c>
+      <c r="H32" s="56" t="n">
+        <v>200</v>
+      </c>
+      <c r="I32" s="55">
+        <f>TEXT($G32*$H32,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J32" s="52" t="inlineStr"/>
+      <c r="K32" s="52" t="inlineStr">
+        <is>
+          <t>GitLab architecture review and pipeline optimization</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="26" customHeight="1">
+      <c r="A33" s="45" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B33" s="46" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C33" s="46" t="inlineStr">
+        <is>
+          <t>Project coordination planning and vendor management</t>
+        </is>
+      </c>
+      <c r="D33" s="46" t="inlineStr">
+        <is>
+          <t>EO Project Manager</t>
+        </is>
+      </c>
+      <c r="E33" s="49">
+        <f>ROUND(SUM($G$3:$G$31)*0.10,0)</f>
+        <v/>
+      </c>
+      <c r="F33" s="57">
+        <f>'Estimate Settings'!$C$10</f>
+        <v/>
+      </c>
+      <c r="G33" s="49">
+        <f>$E33*$F33</f>
+        <v/>
+      </c>
+      <c r="H33" s="50" t="n">
+        <v>175</v>
+      </c>
+      <c r="I33" s="49">
+        <f>TEXT($G33*$H33,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J33" s="46" t="inlineStr"/>
+      <c r="K33" s="46" t="inlineStr">
+        <is>
+          <t>Includes Dell coordination migration planning risk management</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="26" customHeight="1">
+      <c r="A34" s="58" t="inlineStr"/>
+      <c r="B34" s="58" t="inlineStr"/>
+      <c r="C34" s="58" t="inlineStr"/>
+      <c r="D34" s="58" t="inlineStr"/>
+      <c r="E34" s="58" t="inlineStr"/>
+      <c r="F34" s="59" t="inlineStr">
         <is>
           <t>TOTAL HOURS</t>
         </is>
       </c>
-      <c r="G31" s="59">
-        <f>SUM($G$3:$G$30)</f>
-        <v/>
-      </c>
-      <c r="H31" s="59" t="inlineStr">
+      <c r="G34" s="59">
+        <f>SUM($G$3:$G$33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="59" t="inlineStr">
         <is>
           <t>TOTAL COST</t>
         </is>
       </c>
-      <c r="I31" s="59">
-        <f>TEXT(SUMPRODUCT($G$3:$G$30,$H$3:$H$30),"$#,##0")</f>
-        <v/>
-      </c>
-      <c r="J31" s="58" t="inlineStr"/>
-      <c r="K31" s="58" t="inlineStr">
-        <is>
-          <t>EO Sales Engineer: Update phase multipliers in Estimate Settings based on deployment scale</t>
+      <c r="I34" s="59">
+        <f>TEXT(SUMPRODUCT($G$3:$G$33,$H$3:$H$33),"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J34" s="58" t="inlineStr"/>
+      <c r="K34" s="58" t="inlineStr">
+        <is>
+          <t>EO Sales Engineer: Update phase multipliers based on developer count</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K31"/>
+  <autoFilter ref="A2:K34"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -3412,7 +3562,7 @@
       </c>
       <c r="C3" s="38" t="inlineStr">
         <is>
-          <t>Dell Titanium Partner discount on hardware procurement (negotiate 5-10% on volume orders)</t>
+          <t>Dell Titanium Partner discount on PowerEdge and Unity hardware (negotiate 5-10% on volume orders)</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3588,7 @@
         </is>
       </c>
       <c r="B5" s="63">
-        <f>SUMPRODUCT($G$3:$G$30,$H$3:$H$30)-15000</f>
+        <f>SUMPRODUCT($G$3:$G$33,$H$3:$H$33)-15000</f>
         <v/>
       </c>
       <c r="C5" s="62" t="n"/>
